--- a/FrenchProfiledFHIRAr.xlsx
+++ b/FrenchProfiledFHIRAr.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="StructureDefinition" sheetId="1" r:id="rId1"/>
     <sheet name="SearchParameter" sheetId="2" r:id="rId2"/>
+    <sheet name="ValueSet" sheetId="3" r:id="rId3"/>
+    <sheet name="CodeSystem" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="340">
   <si>
     <t>id</t>
   </si>
@@ -26,9 +28,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Project</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -630,6 +629,414 @@
   </si>
   <si>
     <t>2021-07-26T15:09:19.585+00:00</t>
+  </si>
+  <si>
+    <t>resourceType</t>
+  </si>
+  <si>
+    <t>ValueSet</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.8.1.2</t>
+  </si>
+  <si>
+    <t>fr-cog-commune-pays</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>2021-09-21T15:33:45.453+00:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.8.1.2.15-2018-04-06T17:17</t>
+  </si>
+  <si>
+    <t>fr-encounter-type</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.421+00:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.8.1.2.15-2018-07-08T17:17</t>
+  </si>
+  <si>
+    <t>fr-schedule-type</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.557+00:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.8.1.2.28-2019-12-16T20:23</t>
+  </si>
+  <si>
+    <t>fr-organization-uf-activity-field</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.516+00:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.8.1.3</t>
+  </si>
+  <si>
+    <t>fr-organization-identifier-type</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.496+00:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.8.1.3.1</t>
+  </si>
+  <si>
+    <t>fr-patient-identifier-type</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.521+00:00</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.8.1.3.15-2018-04-27T14:47</t>
+  </si>
+  <si>
+    <t>fr-encounter-discharge-disposition</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.416+00:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.8.1.3.25</t>
+  </si>
+  <si>
+    <t>fr-availability-time-rule</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.384+00:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.8.1.3.25-2018-07-08T17:17</t>
+  </si>
+  <si>
+    <t>fr-availability-time-day</t>
+  </si>
+  <si>
+    <t>2021-09-21T13:50:00.278+00:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.8.1.3.7-2018-06-13</t>
+  </si>
+  <si>
+    <t>fr-encounter-class</t>
+  </si>
+  <si>
+    <t>2019-08-28T14:25:43.910+00:00</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.8.1.3.8-2018-04-06T16:30</t>
+  </si>
+  <si>
+    <t>fr-practitioner-qualification</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.539+00:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.8.1.3-2018-06-13T14:47</t>
+  </si>
+  <si>
+    <t>fr-encounter-identifier-type</t>
+  </si>
+  <si>
+    <t>3.0.1</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.418+00:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.8.1.7-2018-04-06T14:19</t>
+  </si>
+  <si>
+    <t>fr-contact-relationship</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.404+00:00</t>
+  </si>
+  <si>
+    <t>e9ee3478-4b9f-4995-b208-43db63298963</t>
+  </si>
+  <si>
+    <t>fr-organization-type</t>
+  </si>
+  <si>
+    <t>2021-10-27T14:37:55.565+00:00</t>
+  </si>
+  <si>
+    <t>ecd4692e-00c8-4a01-9883-25e49967cf2e</t>
+  </si>
+  <si>
+    <t>fr-practioner-identifier-type</t>
+  </si>
+  <si>
+    <t>2022-08-30T12:18:54.067+00:00</t>
+  </si>
+  <si>
+    <t>fr-civility</t>
+  </si>
+  <si>
+    <t>2021-10-21T14:16:48.701+00:00</t>
+  </si>
+  <si>
+    <t>fr-civility-exercice-rass</t>
+  </si>
+  <si>
+    <t>2021-10-21T09:38:55.040+00:00</t>
+  </si>
+  <si>
+    <t>fr-civility-rass</t>
+  </si>
+  <si>
+    <t>2021-10-20T13:52:38.763+00:00</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.413+00:00</t>
+  </si>
+  <si>
+    <t>fr-insee-code</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.441+00:00</t>
+  </si>
+  <si>
+    <t>fr-organization-activity-field</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.473+00:00</t>
+  </si>
+  <si>
+    <t>fr-practitioner-role-categorie-professionnelle</t>
+  </si>
+  <si>
+    <t>fr-practioner-role-categorie-professionnelle</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.529+00:00</t>
+  </si>
+  <si>
+    <t>fr-practitioner-role-exercice</t>
+  </si>
+  <si>
+    <t>fr-practioner-role-exercice</t>
+  </si>
+  <si>
+    <t>2021-10-21T09:39:34.900+00:00</t>
+  </si>
+  <si>
+    <t>fr-practitioner-role-profession</t>
+  </si>
+  <si>
+    <t>fr-practioner-role-profession</t>
+  </si>
+  <si>
+    <t>2021-10-21T09:39:34.956+00:00</t>
+  </si>
+  <si>
+    <t>fr-practitioner-specialty</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.552+00:00</t>
+  </si>
+  <si>
+    <t>fr-related-person</t>
+  </si>
+  <si>
+    <t>2021-09-21T15:20:49.487+00:00</t>
+  </si>
+  <si>
+    <t>fr-related-person-role</t>
+  </si>
+  <si>
+    <t>2021-09-21T14:51:46.007+00:00</t>
+  </si>
+  <si>
+    <t>fr-title</t>
+  </si>
+  <si>
+    <t>2021-10-21T14:16:57.072+00:00</t>
+  </si>
+  <si>
+    <t>identity-method-collection</t>
+  </si>
+  <si>
+    <t>fr-identity-method-collection</t>
+  </si>
+  <si>
+    <t>2021-11-24T15:41:25.432+00:00</t>
+  </si>
+  <si>
+    <t>identity-reliability</t>
+  </si>
+  <si>
+    <t>fr-identity-reliability</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.433+00:00</t>
+  </si>
+  <si>
+    <t>identity-validation-mode</t>
+  </si>
+  <si>
+    <t>fr-mode-validation-identite</t>
+  </si>
+  <si>
+    <t>2021-11-24T15:24:36.103+00:00</t>
+  </si>
+  <si>
+    <t>location-identifier-type</t>
+  </si>
+  <si>
+    <t>fr-location-identifier-type</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.448+00:00</t>
+  </si>
+  <si>
+    <t>location-physical-type</t>
+  </si>
+  <si>
+    <t>fr-location-physical-type</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.451+00:00</t>
+  </si>
+  <si>
+    <t>location-position-room</t>
+  </si>
+  <si>
+    <t>fr-location-position-room</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.456+00:00</t>
+  </si>
+  <si>
+    <t>location-type</t>
+  </si>
+  <si>
+    <t>fr-location-type</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.461+00:00</t>
+  </si>
+  <si>
+    <t>CodeSystem</t>
+  </si>
+  <si>
+    <t>CodeSystem-Fiabilité-Identité-IS</t>
+  </si>
+  <si>
+    <t>fr-v2-0445</t>
+  </si>
+  <si>
+    <t>20200312</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.360+00:00</t>
+  </si>
+  <si>
+    <t>CodeSystem-Types-organisations-ASIP</t>
+  </si>
+  <si>
+    <t>AsipOrganizationTypes</t>
+  </si>
+  <si>
+    <t>20191218</t>
+  </si>
+  <si>
+    <t>2021-10-12T16:02:52.138+00:00</t>
+  </si>
+  <si>
+    <t>CodeSystem-Types-organisations-IS</t>
+  </si>
+  <si>
+    <t>fr-v2-3307</t>
+  </si>
+  <si>
+    <t>2021-10-20T13:48:16.240+00:00</t>
+  </si>
+  <si>
+    <t>fr-circonstances-sortie</t>
+  </si>
+  <si>
+    <t>20210708</t>
+  </si>
+  <si>
+    <t>2021-07-13T07:50:08.737+00:00</t>
+  </si>
+  <si>
+    <t>2021-07-13T07:50:38.785+00:00</t>
+  </si>
+  <si>
+    <t>fr-cs-identity-method-collection</t>
+  </si>
+  <si>
+    <t>20211124</t>
+  </si>
+  <si>
+    <t>2021-11-24T15:41:42.326+00:00</t>
+  </si>
+  <si>
+    <t>fr-cs-mode-validation-identite</t>
+  </si>
+  <si>
+    <t>2021-11-24T15:22:00.697+00:00</t>
+  </si>
+  <si>
+    <t>fr-identifier-type</t>
+  </si>
+  <si>
+    <t>2021-07-13T07:51:01.720+00:00</t>
+  </si>
+  <si>
+    <t>2021-07-13T07:51:34.979+00:00</t>
+  </si>
+  <si>
+    <t>2021-07-13T07:52:00.323+00:00</t>
+  </si>
+  <si>
+    <t>2021-07-13T07:52:18.562+00:00</t>
+  </si>
+  <si>
+    <t>2021-07-13T07:52:46.475+00:00</t>
+  </si>
+  <si>
+    <t>2021-07-13T07:53:14.618+00:00</t>
+  </si>
+  <si>
+    <t>fr-type-admission</t>
+  </si>
+  <si>
+    <t>2021-07-13T07:53:32.805+00:00</t>
+  </si>
+  <si>
+    <t>fr-v2-0203</t>
+  </si>
+  <si>
+    <t>2021-07-13T07:53:53.607+00:00</t>
+  </si>
+  <si>
+    <t>fr-v2-3311</t>
+  </si>
+  <si>
+    <t>2021-07-26T15:09:19.587+00:00</t>
   </si>
 </sst>
 </file>
@@ -961,13 +1368,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -989,18 +1396,18 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
@@ -1012,229 +1419,229 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
       <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
       <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
@@ -1242,1020 +1649,1017 @@
       <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
       <c r="G15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>68</v>
       </c>
       <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
         <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
       </c>
-      <c r="H16" t="s">
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>72</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
       <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>77</v>
       </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
       <c r="G19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>80</v>
       </c>
-      <c r="H19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
       </c>
       <c r="G20" t="s">
         <v>83</v>
       </c>
-      <c r="H20" t="s">
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>85</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
         <v>93</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
         <v>99</v>
       </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
       <c r="G25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>100</v>
       </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>102</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
         <v>103</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
       </c>
       <c r="G26" t="s">
         <v>104</v>
       </c>
-      <c r="H26" t="s">
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>106</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>107</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="E27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
         <v>110</v>
       </c>
-      <c r="C28" t="s">
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="E28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
         <v>113</v>
       </c>
-      <c r="C29" t="s">
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
         <v>27</v>
       </c>
-      <c r="E29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
         <v>27</v>
       </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" t="s">
-        <v>124</v>
-      </c>
-      <c r="H32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
         <v>27</v>
       </c>
-      <c r="E33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>131</v>
-      </c>
-      <c r="H34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
         <v>27</v>
       </c>
-      <c r="E35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
         <v>27</v>
       </c>
-      <c r="E36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>140</v>
-      </c>
-      <c r="H37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
         <v>145</v>
       </c>
-      <c r="C39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
       <c r="G39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
         <v>146</v>
       </c>
-      <c r="H39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>147</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>148</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>149</v>
       </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
       <c r="G40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
         <v>150</v>
       </c>
-      <c r="H40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>151</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
         <v>152</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
       </c>
       <c r="G41" t="s">
         <v>153</v>
       </c>
-      <c r="H41" t="s">
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>155</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
         <v>156</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>165</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
         <v>27</v>
       </c>
-      <c r="E42" t="s">
-        <v>157</v>
-      </c>
-      <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s">
-        <v>158</v>
-      </c>
-      <c r="H42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>162</v>
-      </c>
-      <c r="H43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>163</v>
-      </c>
-      <c r="B44" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>166</v>
-      </c>
-      <c r="H44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
         <v>168</v>
       </c>
-      <c r="C45" t="s">
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
         <v>27</v>
       </c>
-      <c r="E45" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>169</v>
-      </c>
-      <c r="H45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
         <v>27</v>
       </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" t="s">
-        <v>172</v>
-      </c>
-      <c r="H46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
         <v>27</v>
       </c>
-      <c r="E47" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>175</v>
-      </c>
-      <c r="H47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
         <v>27</v>
       </c>
-      <c r="E48" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>178</v>
-      </c>
-      <c r="H48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>186</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" t="s">
         <v>27</v>
       </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>181</v>
-      </c>
-      <c r="H49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>182</v>
-      </c>
-      <c r="B50" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>184</v>
-      </c>
-      <c r="H50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" t="s">
-        <v>186</v>
-      </c>
-      <c r="C51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>187</v>
-      </c>
-      <c r="H51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
         <v>189</v>
       </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
       <c r="G52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
         <v>190</v>
       </c>
-      <c r="H52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>191</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>192</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
         <v>193</v>
-      </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
       </c>
       <c r="G53" t="s">
         <v>194</v>
       </c>
-      <c r="H53" t="s">
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>196</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" t="s">
         <v>197</v>
       </c>
-      <c r="C54" t="s">
+      <c r="G54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
         <v>27</v>
       </c>
-      <c r="E54" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" t="s">
-        <v>54</v>
-      </c>
-      <c r="G54" t="s">
-        <v>198</v>
-      </c>
-      <c r="H54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="E55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" t="s">
         <v>200</v>
       </c>
-      <c r="C55" t="s">
+      <c r="G55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
         <v>27</v>
       </c>
-      <c r="E55" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" t="s">
-        <v>54</v>
-      </c>
-      <c r="G55" t="s">
-        <v>201</v>
-      </c>
-      <c r="H55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>202</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="E56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" t="s">
         <v>203</v>
       </c>
-      <c r="C56" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" t="s">
-        <v>54</v>
-      </c>
       <c r="G56" t="s">
-        <v>204</v>
-      </c>
-      <c r="H56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2273,4 +2677,1249 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>265</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>278</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" t="s">
+        <v>283</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>284</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>290</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" t="s">
+        <v>295</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>328</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>332</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>337</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>339</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>